--- a/g_products.xlsx
+++ b/g_products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\PARUL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911803D-2DC0-41DC-8373-0BF143998DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59EDE90-1F42-487E-AC2C-3B66FC113685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{01912F5E-1B40-4D4A-9541-02D52D9E8D7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="12900" xr2:uid="{F8587DF7-DD30-47CA-9485-1750CD00DF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -52,205 +52,274 @@
     <t>image</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/nzvH7pzY/Whats-App-Image-2024-06-22-at-19-15-54.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/PJyT3y1C/Whats-App-Image-2024-06-22-at-19-15-57-1.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/d3wJjpZM/Whats-App-Image-2024-06-22-at-19-15-58.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/MZm6p6gz/Whats-App-Image-2024-09-20-at-18-40-52.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/0ybPnpjN/Whats-App-Image-2024-10-17-at-16-04-59.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/hPCKVCSw/Whats-App-Image-2024-10-17-at-16-05-04.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/mDNskjXm/Whats-App-Image-2024-11-10-at-16-20-50.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/hjqnK6rJ/Whats-App-Image-2024-11-11-at-21-10-17.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/59gJMPF0/Whats-App-Image-2024-11-15-at-19-23-26.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/65QX6ddh/Whats-App-Image-2024-11-15-at-19-24-24.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/ZKDhWCHz/Whats-App-Image-2024-11-21-at-21-31-08.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Qd9Z1hY9/Whats-App-Image-2025-01-08-at-18-43-28.jpg</t>
-  </si>
-  <si>
-    <t>RANGER/A-9107 36- 42 - 3 PCS BOX-IMPORTED-215</t>
+    <t>https://i.postimg.cc/65zYJH07/Whats-App-Image-2025-07-31-at-17-13-37-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Hkx3pQZ6/Whats-App-Image-2025-07-31-at-17-13-38-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/G20jJ6cf/Whats-App-Image-2025-07-31-at-17-13-38-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gjmq1RLq/Whats-App-Image-2025-07-31-at-17-13-38-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KjfrbznX/Whats-App-Image-2025-07-31-at-17-13-38-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3rFZmLzL/Whats-App-Image-2025-07-31-at-17-58-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vm5nMTsP/Whats-App-Image-2025-07-31-at-17-58-58.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FsPgnYr3/Whats-App-Image-2025-07-31-at-17-58-58-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Z52P4Xyq/Whats-App-Image-2025-07-31-at-17-58-58-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJ3RHTQB/Whats-App-Image-2025-07-31-at-17-58-58-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sxx1BDkC/Whats-App-Image-2025-07-31-at-17-58-59-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jq3LpPfx/Whats-App-Image-2025-07-31-at-17-58-59-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bNKdJPL4/Whats-App-Image-2025-07-31-at-17-58-59-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/k5y5fb9d/Whats-App-Image-2025-07-31-at-17-58-59-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/hjPtwtPQ/Whats-App-Image-2025-07-31-at-17-58-59-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/52g0mzfW/Whats-App-Image-2025-07-31-at-17-59-00.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/4xg7PZtV/Whats-App-Image-2025-07-31-at-17-59-00-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7ZnCQcMc/Whats-App-Image-2025-07-31-at-17-59-00-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Ls4qdTxs/Whats-App-Image-2025-07-31-at-17-59-00-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wv77MB88/Whats-App-Image-2025-07-31-at-17-59-00-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BbFb5wnm/Whats-App-Image-2025-07-31-at-17-59-00-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KvXRcF0w/Whats-App-Image-2025-07-31-at-17-59-00-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLfVLFmn/Whats-App-Image-2025-07-31-at-17-59-00-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PqdXp5DV/Whats-App-Image-2025-07-31-at-17-59-00-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8CCCXCCJ/Whats-App-Image-2025-07-31-at-17-59-01-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/W4f1BPD9/Whats-App-Image-2025-07-31-at-17-59-01-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tTZ4ymW9/Whats-App-Image-2025-07-31-at-17-59-01-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d1bt0mjr/Whats-App-Image-2025-07-31-at-17-59-01-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/x8LjNJ67/Whats-App-Image-2025-07-31-at-17-59-01-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZKFKTNBv/Whats-App-Image-2025-07-31-at-17-59-01-8.jpg</t>
+  </si>
+  <si>
+    <t>SHACKET</t>
+  </si>
+  <si>
+    <t>HUDSON CREW/A- 8055 L TO XXL -THREAD</t>
+  </si>
+  <si>
+    <t>HUDSON CREW/A-8055</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-2111 -26 TO 36 -IMPORTED</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-2111</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-2114 -26 TO 36 - CHECK BONDING</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-2114</t>
+  </si>
+  <si>
+    <t>JUST RELAX/A-907 - M TO 2XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>JUST RELAX/A-907</t>
   </si>
   <si>
     <t>LOWER</t>
   </si>
   <si>
-    <t>RANGER/A-9107</t>
-  </si>
-  <si>
-    <t>RANGER/A-3416 38-44 -3PCS BOX -270</t>
-  </si>
-  <si>
-    <t>RANGER/A-3416</t>
-  </si>
-  <si>
-    <t>RANGER/A-4340 - 38-446-3PCS BOX -300</t>
-  </si>
-  <si>
-    <t>RANGER/A-4340</t>
-  </si>
-  <si>
-    <t>TRACK-SUIT</t>
+    <t>RANGER /A-777 -XL TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUST RELAX/A-777 </t>
+  </si>
+  <si>
+    <t>TRACK SUIT</t>
+  </si>
+  <si>
+    <t>RANGER/A-777/5 -XL TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>JUST RELAX/A-777/5</t>
+  </si>
+  <si>
+    <t>RANGER/A-777/16 -XL TO 3XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>JUST RELAX/A-777/16</t>
+  </si>
+  <si>
+    <t>HUDSON CREW/ L TO XXL -THREAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUST RELAX </t>
+  </si>
+  <si>
+    <t>HUDSON -L TO 2XL -STRIPPER ANTIPILLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUDSON </t>
+  </si>
+  <si>
+    <t>RANGER/A-210 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>RANGER/A-210</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>JUST RELAX/A-8077 - M TO 3XL -IMPORTED</t>
   </si>
   <si>
     <t>JUST RELAX/A-8077</t>
   </si>
   <si>
-    <t>NELLA MODA/A-101</t>
-  </si>
-  <si>
-    <t>NELLA MODA/A-104 -M TO XL -3 PCS BOX -600</t>
+    <t>BC-99 / M TO 2XL -SAP BONDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC-99 </t>
+  </si>
+  <si>
+    <t>NELLA MODA/A-104 -M TO XL -IMPORTED</t>
   </si>
   <si>
     <t>NELLA MODA/A-104</t>
   </si>
   <si>
-    <t>RANGER/A-888 -M TO XL -3 PCS BOX -3THREAD- 650</t>
-  </si>
-  <si>
-    <t>RANGER/A-888</t>
-  </si>
-  <si>
-    <t>JACKET</t>
-  </si>
-  <si>
-    <t>GAHIL/A-5127</t>
-  </si>
-  <si>
-    <t>SWEAT</t>
-  </si>
-  <si>
-    <t>GAHIL/A-0130</t>
-  </si>
-  <si>
-    <t>GAHIL/A-0130 -MTO XL -3 PCS BOX - 650</t>
-  </si>
-  <si>
-    <t>TRACKPOLO/A-TP#06</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/65MmMg4r/Whats-App-Image-2025-07-18-at-14-51-12.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/T3hHF0nZ/Whats-App-Image-2025-07-18-at-14-51-54.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/j5YgWrBb/Whats-App-Image-2025-07-18-at-14-52-12.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/4xMFgc5n/Whats-App-Image-2025-07-18-at-14-54-18.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/W3m9gHPJ/Whats-App-Image-2025-07-18-at-14-54-32.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/SRygrfy1/Whats-App-Image-2025-07-18-at-14-54-49.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/2y22XLyk/Whats-App-Image-2025-07-18-at-14-55-06.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/05fWNFfT/Whats-App-Image-2025-07-18-at-14-55-34.jpg</t>
-  </si>
-  <si>
-    <t>SHACKET</t>
-  </si>
-  <si>
-    <t>ZOMMIE &amp; CO/A-HT-2-M TO 2XL-IMPORTED DIAGONAL BONED -450</t>
-  </si>
-  <si>
-    <t>ZOMMIE &amp; CO/A-SHK-5-M TO 2XL-IMPORTED CHEILE BONED -450</t>
-  </si>
-  <si>
-    <t>ZOMMIE &amp; CO/A-CB-8- M TO XXL -1 PCS BOX -IMPORTED-600</t>
-  </si>
-  <si>
-    <t>ZOMMIE &amp; CO/A-CB-8</t>
-  </si>
-  <si>
-    <t>ZOMMIE &amp; CO/A-HT-2</t>
-  </si>
-  <si>
-    <t>ZOMMIE &amp; CO/A-SHK-5</t>
-  </si>
-  <si>
-    <t>WIND-CHEATER</t>
-  </si>
-  <si>
-    <t>OZZY/A-9107</t>
-  </si>
-  <si>
-    <t>FREE MIND/A-3301-M TO 3XL -COTT-FEEL-RICE-500</t>
-  </si>
-  <si>
-    <t>FREE MIND/A-3301</t>
-  </si>
-  <si>
-    <t>RANGER/A-777/18</t>
-  </si>
-  <si>
-    <t>RANGER/A-777/15</t>
-  </si>
-  <si>
-    <t>CORD SET</t>
-  </si>
-  <si>
-    <t>PROFILE/A-CSW-10</t>
-  </si>
-  <si>
-    <t>PROFILE/A-TSW-43</t>
-  </si>
-  <si>
-    <t>PROFILE/A-CSW-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZZY/A-9107- M TO 3XL -39THREADS -350 </t>
-  </si>
-  <si>
-    <t>PROFILE/A-CSW-10 -M TO 2XL -1 PCS BOX -IMPORTED BONED -850</t>
-  </si>
-  <si>
-    <t>RANGER/A-777/15 - M TO 3XL - 3 PCS BOX COTT-FEEL -850</t>
-  </si>
-  <si>
-    <t>RANGER/A-777/18- M TO 3XL - 3PCS BOX COTT-FEEL -850</t>
-  </si>
-  <si>
-    <t>PROFILE/A-TEW-43- M TO 2XL -1 PCS BOX -TWILL BONDED -850</t>
-  </si>
-  <si>
-    <t>PROFILE/A-CSW-1- M TO 2XL -1PCS BOX -PREMIUM BONDING -1050</t>
-  </si>
-  <si>
-    <t>GAHIL/A-5127 -M TO 2XL -650</t>
-  </si>
-  <si>
-    <t>TRACKPOLO/A-TP#06 -M TO 3XL -1 PCS BOX -3THREAD -1050</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-8077 -M TO 3XL -1 PCS BOX -650</t>
-  </si>
-  <si>
-    <t>NELLA MODA/A-101 -M TO XL -3 PCS BOX -750</t>
+    <t>NELLA MODA/A-103 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>NELLA MODA/A-103</t>
+  </si>
+  <si>
+    <t>RANGER/A-15575 -M TO XL -IMPORTED</t>
+  </si>
+  <si>
+    <t>RANGER/A-15575</t>
+  </si>
+  <si>
+    <t>DENIM SQUARE</t>
+  </si>
+  <si>
+    <t>BC-99 / M TO 2XL - IMPORTED BONDING</t>
+  </si>
+  <si>
+    <t>SHF - M TO 3XL</t>
+  </si>
+  <si>
+    <t>SHF</t>
+  </si>
+  <si>
+    <t>SWEATER</t>
+  </si>
+  <si>
+    <t>PROFILE/A-126 -M TO XXL -PREMIUM BONDING</t>
+  </si>
+  <si>
+    <t>PROFILE/A-126</t>
+  </si>
+  <si>
+    <t>PROFILE-M TO XXL -PREMIUM BONDING</t>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>PROFILE/A-CSW-8 -M TO XXL - SUEDE</t>
+  </si>
+  <si>
+    <t>PROFILE/A-CSW-8</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qBDPVXGv/Whats-App-Image-2025-07-31-at-17-59-01.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1XXbVfyS/Whats-App-Image-2025-07-31-at-17-59-01-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/x8Zhvndz/Whats-App-Image-2025-07-31-at-17-59-01-2.jpg</t>
+  </si>
+  <si>
+    <t>ABSOLUTE - 38 TO 42 -SWEAT</t>
+  </si>
+  <si>
+    <t>ABSOLUTE</t>
+  </si>
+  <si>
+    <t>PULLOVER</t>
+  </si>
+  <si>
+    <t>ABSOLUTE - M TO XL -SWEAT</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-903 - M TO XXL -FAB CHECK</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-903</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-937 -M TO XXL -FAB WASHING</t>
+  </si>
+  <si>
+    <t>UNDER 19/A-937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLECTIVE HOME -M TO XXL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLECTIVE HOME </t>
+  </si>
+  <si>
+    <t>SWEAT SHIRT</t>
+  </si>
+  <si>
+    <t>DENIM SQUARE -M TO XL -  WASHING</t>
   </si>
 </sst>
 </file>
@@ -290,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -298,32 +367,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,17 +692,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB545F5E-F241-4E12-B891-F3796D051BDE}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B162F1B-6F62-4E4D-93B8-99A374348B20}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" activeCellId="6" sqref="D9 D13 D19 D15 D2 D6 D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" activeCellId="1" sqref="D13 D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="63.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -670,16 +727,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>215</v>
+        <v>550</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -687,376 +744,583 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>650</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>950</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>750</v>
+        <v>970</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>950</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C14">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>440</v>
+        <v>650</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C18">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>42</v>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C21">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>44</v>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>625</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>650</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>475</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>475</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>700</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>700</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>700</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>1050</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>1050</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>1050</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>710</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>562</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>562</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{52A0C11C-FA6B-4157-97D2-CFF342EDC0AF}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{85F0EC6B-A235-4C4E-B5C0-CC5DDB0E4CC2}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{900C9AFD-6754-453C-B53B-2DB313DBCF01}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{B177108B-AA52-4E8A-B174-72826D490942}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{3AF61163-D395-4160-AD25-D0C36391EA00}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{CB35F7B6-B00C-4D10-8256-20C91D5241E4}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{C3FFC18F-B29D-408F-B13C-4251EFEA1C03}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{E524C968-F124-4E46-9290-232BB1D5B9DD}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{3F96F42E-DDD5-4708-B22B-E6C5ADC9E089}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{21FCDE40-6414-4553-AF71-3FCB17248A09}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{85639366-48DB-4A14-92BD-090DEAE744F0}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{838A1EBA-2B3F-4D96-9A5E-73D7286C219A}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{0825BF12-4068-4637-BBBC-9CEDBF674594}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{60692EC1-3FD6-4860-95C7-555D39697D09}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{6D7279C8-F2AB-4EA6-86F0-95C9D97CAEF3}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{05B2C13E-4B86-4A15-AC39-F47818168335}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{B665D148-1C4B-4EC1-8972-435A4A601053}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{3BB98040-6426-4FD9-845C-2FAF7609ADB3}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{35F55E09-8002-46B3-BC9B-C4577E36D3E6}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{2F8D11E5-78EA-487A-8633-751C128E2E07}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F18E4136-BEE5-441E-A2D5-541EB2624CEB}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2CCAA7A7-EA79-40A8-B69A-041596841263}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{9992AF0E-24FE-4971-B6CB-0DAFAFFB6A7D}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{AEAE873B-A3D9-4646-A7AC-D8C0537F9D30}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{813F10B6-C485-4226-BCA0-41253EE29339}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{DEA31F1F-2DF1-463B-B3CA-C6BDC8F9DB24}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{B242DD31-1C29-4AA3-9C0B-D8058BFF55E6}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{67A8FC6B-F8B7-4588-831D-21B7944586AE}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{0A746A4F-6F61-4DF5-BF72-A33B3AD6F5A0}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{11E7788C-2456-4E1C-A53C-7357E3A90A73}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{B1AE84C0-EDA0-4B45-B295-5EA53EAA0907}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{9501CBC9-6FF9-4455-88AD-DF32EC3B6AA2}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{A3819FAE-F39E-4080-877E-8FBBABD52275}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{24AB1193-5BEE-4B20-ACE2-A03451A1079A}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{7FFE809C-DC8B-4F0C-A274-C7234AB5D695}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{107284B5-2694-436D-8DE8-8E2D632D271C}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{662E4903-B457-4BAE-AF2D-A7BCF373F928}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{0AD7FF85-9C52-4CDA-AD70-ACD574CD669F}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{2D5EECCC-A0F6-47D6-A08D-C146D1FD317C}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{71FDDCD6-DFFD-45B3-B476-50007A3F0235}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{4C57D043-B1B4-4DCA-BFE6-27B037D7A28A}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{D703992A-44A9-4E10-A0A8-EDE9B2DDD223}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{0D8189E3-9237-4708-B224-8CF4FDC600A0}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{F9C0AFB1-F640-4664-B4EF-5E9DDB0B06A9}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{989B28D2-39AE-4427-A2E6-54B6B5C8AF56}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{1323EAAD-5698-45A7-85FA-1A3B17F7E95F}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{71C3A5A9-59C9-4F8E-9AFA-9CCF4D6391B9}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{7E7569A9-1310-42FB-9AB2-54F991A288F3}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{B574DF27-38C0-486A-BDD7-4703277C93F4}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{CB5A0661-A1DE-47E4-ADA5-19B3BE3E0470}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{D97B4846-4E18-476A-B4F9-97469D5CAADA}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{926F0334-7252-4148-9163-8413813B2FBB}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{F6A454F6-8AEF-48FB-9C51-8DA06DA60B8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/g_products.xlsx
+++ b/g_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59EDE90-1F42-487E-AC2C-3B66FC113685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F14158-743D-4EB0-9DE2-CFDB06F96B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="12900" xr2:uid="{F8587DF7-DD30-47CA-9485-1750CD00DF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F6974F5A-8AA5-4797-9557-EF7146B3C5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -52,274 +52,265 @@
     <t>image</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/65zYJH07/Whats-App-Image-2025-07-31-at-17-13-37-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Hkx3pQZ6/Whats-App-Image-2025-07-31-at-17-13-38-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/G20jJ6cf/Whats-App-Image-2025-07-31-at-17-13-38-3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/gjmq1RLq/Whats-App-Image-2025-07-31-at-17-13-38-5.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/KjfrbznX/Whats-App-Image-2025-07-31-at-17-13-38-6.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/3rFZmLzL/Whats-App-Image-2025-07-31-at-17-58-57.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/vm5nMTsP/Whats-App-Image-2025-07-31-at-17-58-58.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/FsPgnYr3/Whats-App-Image-2025-07-31-at-17-58-58-1.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Z52P4Xyq/Whats-App-Image-2025-07-31-at-17-58-58-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/cJ3RHTQB/Whats-App-Image-2025-07-31-at-17-58-58-3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/sxx1BDkC/Whats-App-Image-2025-07-31-at-17-58-59-13.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/jq3LpPfx/Whats-App-Image-2025-07-31-at-17-58-59-14.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/bNKdJPL4/Whats-App-Image-2025-07-31-at-17-58-59-15.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/k5y5fb9d/Whats-App-Image-2025-07-31-at-17-58-59-18.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/hjPtwtPQ/Whats-App-Image-2025-07-31-at-17-58-59-19.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/52g0mzfW/Whats-App-Image-2025-07-31-at-17-59-00.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/4xg7PZtV/Whats-App-Image-2025-07-31-at-17-59-00-11.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/7ZnCQcMc/Whats-App-Image-2025-07-31-at-17-59-00-12.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Ls4qdTxs/Whats-App-Image-2025-07-31-at-17-59-00-13.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/wv77MB88/Whats-App-Image-2025-07-31-at-17-59-00-15.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/BbFb5wnm/Whats-App-Image-2025-07-31-at-17-59-00-17.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/KvXRcF0w/Whats-App-Image-2025-07-31-at-17-59-00-19.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/pLfVLFmn/Whats-App-Image-2025-07-31-at-17-59-00-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/PqdXp5DV/Whats-App-Image-2025-07-31-at-17-59-00-3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/8CCCXCCJ/Whats-App-Image-2025-07-31-at-17-59-01-1.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/W4f1BPD9/Whats-App-Image-2025-07-31-at-17-59-01-2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/tTZ4ymW9/Whats-App-Image-2025-07-31-at-17-59-01-3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/d1bt0mjr/Whats-App-Image-2025-07-31-at-17-59-01-4.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/x8LjNJ67/Whats-App-Image-2025-07-31-at-17-59-01-5.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/ZKFKTNBv/Whats-App-Image-2025-07-31-at-17-59-01-8.jpg</t>
+    <t>https://i.postimg.cc/1515NKWc/Whats-App-Image-2025-08-27-at-15-35-23.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jd6q6JmV/Whats-App-Image-2025-08-27-at-15-35-25.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/K8vbnptL/Whats-App-Image-2025-08-27-at-15-35-05.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cL9ST7cz/Whats-App-Image-2025-08-27-at-15-35-06.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRX/A-PK-40-M TO 2XL </t>
+  </si>
+  <si>
+    <t>PRX/A-PK-40</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gcqD6GdM/Whats-App-Image-2025-08-30-at-12-05-12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rsJN6NQ6/Whats-App-Image-2025-08-30-at-12-05-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DyvcrRw7/Whats-App-Image-2025-08-30-at-12-05-13-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MK9mdtnV/Whats-App-Image-2025-08-30-at-12-05-14.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jSCQ9Nf9/Whats-App-Image-2025-08-30-at-12-05-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gJbVnT7F/Whats-App-Image-2025-08-30-at-12-06-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zGMS1BSf/Whats-App-Image-2025-08-30-at-12-06-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mD3QMSxc/Whats-App-Image-2025-08-30-at-12-06-54.jpg</t>
+  </si>
+  <si>
+    <t>PRX/A-PK-102 - M TO XXL</t>
+  </si>
+  <si>
+    <t>PRX/A-PK-102</t>
+  </si>
+  <si>
+    <t>PRX/A-WL-36 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>PRX/A-WL-36</t>
+  </si>
+  <si>
+    <t>PRX/A-WL-37 - M TO 2XL</t>
+  </si>
+  <si>
+    <t>PRX/A-WL-37</t>
+  </si>
+  <si>
+    <t>RANGER/A-1566 -38 TO 44 -CRUSH LYCRA</t>
+  </si>
+  <si>
+    <t>RANGER/A-1566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGER/A-4340 -36 TO 46 </t>
+  </si>
+  <si>
+    <t>RANGER/A-4340</t>
+  </si>
+  <si>
+    <t>RANGER/A-7725 -38 TO 44</t>
+  </si>
+  <si>
+    <t>RANGER/A-7725</t>
+  </si>
+  <si>
+    <t>RANGER/A-7925 - 38 TO 44</t>
+  </si>
+  <si>
+    <t>RANGER/A-7925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGER/A-7535 - 38 TO 44 </t>
+  </si>
+  <si>
+    <t>RANGER/A-7535</t>
+  </si>
+  <si>
+    <t>BLACK BEANS/A-7118 - M TO XXL -DENIM TEXTILES (CARGO)</t>
+  </si>
+  <si>
+    <t>BLACK BEANS/A-7118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK BEANS/A-7101 - M TO XXL - COTTON DENIM </t>
+  </si>
+  <si>
+    <t>BLACK BEANS/A-7101</t>
+  </si>
+  <si>
+    <t>BLACK BEANS/A-5278 - M TO XXL -COTTON FEATHER</t>
+  </si>
+  <si>
+    <t>BLACK BEANS/A-5278</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/PrLWh7T4/Whats-App-Image-2025-08-30-at-12-52-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/htTVQ7JQ/Whats-App-Image-2025-08-30-at-12-52-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fT6xbvbh/Whats-App-Image-2025-08-30-at-12-52-40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gctVCpFj/Whats-App-Image-2025-08-30-at-12-52-47.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DzhLrysj/Whats-App-Image-2025-08-30-at-12-52-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/s2JSwd4V/Whats-App-Image-2025-08-30-at-12-53-06.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/sXDWL6T5/Whats-App-Image-2025-08-30-at-12-53-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SsT9b6P3/Whats-App-Image-2025-08-30-at-12-53-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/brZtyGcJ/Whats-App-Image-2025-08-30-at-12-53-46.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMLER / M TO XXL </t>
+  </si>
+  <si>
+    <t>PULLOVER</t>
+  </si>
+  <si>
+    <t>HAMLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMLER /M TO 2XL </t>
+  </si>
+  <si>
+    <t>HAMLER /  M TO 3XL</t>
+  </si>
+  <si>
+    <t>HUDSON CREW</t>
+  </si>
+  <si>
+    <t>HAMLER / M TO 2XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMLER </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZY8yFy4r/Whats-App-Image-2025-08-30-at-14-23-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Hn9cpFBS/Whats-App-Image-2025-08-30-at-14-23-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xTgJBDk8/Whats-App-Image-2025-08-30-at-14-23-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/htjzByxr/Whats-App-Image-2025-08-30-at-14-23-21.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bNqS6Nw4/Whats-App-Image-2025-08-30-at-14-23-21-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3w0kykt0/Whats-App-Image-2025-08-30-at-14-23-23.jpg</t>
+  </si>
+  <si>
+    <t>DOMEX /M TO XXL</t>
+  </si>
+  <si>
+    <t>SWEATER</t>
+  </si>
+  <si>
+    <t>DOMEX ORIGINAL</t>
+  </si>
+  <si>
+    <t>DOMEX / M TO XXL</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RCyZjSdg/Whats-App-Image-2025-08-30-at-14-47-43.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QC2N5mC2/Whats-App-Image-2025-08-30-at-14-47-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/hPmtnk3c/Whats-App-Image-2025-08-30-at-14-47-45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XY07YsTF/Whats-App-Image-2025-08-30-at-14-47-46.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rpVVSKyw/Whats-App-Image-2025-08-30-at-14-47-47-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/C1twT7GR/Whats-App-Image-2025-08-30-at-14-47-48.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tRZx1mmm/Whats-App-Image-2025-08-30-at-14-47-49.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nrDpHm20/Whats-App-Image-2025-08-30-at-14-47-49-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fRKtn4Jk/Whats-App-Image-2025-08-30-at-14-47-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SQBzc7BQ/Whats-App-Image-2025-08-30-at-14-47-51-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xd1k9sz5/Whats-App-Image-2025-08-30-at-14-47-52.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9Fywbw2d/Whats-App-Image-2025-08-30-at-14-47-52-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y94hWh8m/Whats-App-Image-2025-08-30-at-14-47-53.jpg</t>
+  </si>
+  <si>
+    <t>B -52 PLUS / M TO XXL - IMPORTED</t>
   </si>
   <si>
     <t>SHACKET</t>
   </si>
   <si>
-    <t>HUDSON CREW/A- 8055 L TO XXL -THREAD</t>
-  </si>
-  <si>
-    <t>HUDSON CREW/A-8055</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-2111 -26 TO 36 -IMPORTED</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-2111</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-2114 -26 TO 36 - CHECK BONDING</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-2114</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-907 - M TO 2XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-907</t>
-  </si>
-  <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>RANGER /A-777 -XL TO 3XL -IMPORTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUST RELAX/A-777 </t>
-  </si>
-  <si>
-    <t>TRACK SUIT</t>
-  </si>
-  <si>
-    <t>RANGER/A-777/5 -XL TO 3XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-777/5</t>
-  </si>
-  <si>
-    <t>RANGER/A-777/16 -XL TO 3XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-777/16</t>
-  </si>
-  <si>
-    <t>HUDSON CREW/ L TO XXL -THREAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUST RELAX </t>
-  </si>
-  <si>
-    <t>HUDSON -L TO 2XL -STRIPPER ANTIPILLING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUDSON </t>
-  </si>
-  <si>
-    <t>RANGER/A-210 -M TO XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>RANGER/A-210</t>
+    <t>B - 52 PLUS</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vT0qNYpM/Whats-App-Image-2025-08-30-at-14-47-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XNLzJLXh/Whats-App-Image-2025-08-30-at-14-47-30-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ydXr0XjD/Whats-App-Image-2025-08-30-at-14-47-31.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/JzD6pWKV/Whats-App-Image-2025-08-30-at-14-47-36.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xTdFbmzd/Whats-App-Image-2025-08-30-at-14-47-36-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/g2CM5BBw/Whats-App-Image-2025-0</t>
   </si>
   <si>
     <t>HOOD</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-8077 - M TO 3XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>JUST RELAX/A-8077</t>
-  </si>
-  <si>
-    <t>BC-99 / M TO 2XL -SAP BONDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC-99 </t>
-  </si>
-  <si>
-    <t>NELLA MODA/A-104 -M TO XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>NELLA MODA/A-104</t>
-  </si>
-  <si>
-    <t>NELLA MODA/A-103 -M TO XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>NELLA MODA/A-103</t>
-  </si>
-  <si>
-    <t>RANGER/A-15575 -M TO XL -IMPORTED</t>
-  </si>
-  <si>
-    <t>RANGER/A-15575</t>
-  </si>
-  <si>
-    <t>DENIM SQUARE</t>
-  </si>
-  <si>
-    <t>BC-99 / M TO 2XL - IMPORTED BONDING</t>
-  </si>
-  <si>
-    <t>SHF - M TO 3XL</t>
-  </si>
-  <si>
-    <t>SHF</t>
-  </si>
-  <si>
-    <t>SWEATER</t>
-  </si>
-  <si>
-    <t>PROFILE/A-126 -M TO XXL -PREMIUM BONDING</t>
-  </si>
-  <si>
-    <t>PROFILE/A-126</t>
-  </si>
-  <si>
-    <t>PROFILE-M TO XXL -PREMIUM BONDING</t>
-  </si>
-  <si>
-    <t>PROFILE</t>
-  </si>
-  <si>
-    <t>PROFILE/A-CSW-8 -M TO XXL - SUEDE</t>
-  </si>
-  <si>
-    <t>PROFILE/A-CSW-8</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/qBDPVXGv/Whats-App-Image-2025-07-31-at-17-59-01.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/1XXbVfyS/Whats-App-Image-2025-07-31-at-17-59-01-1.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/x8Zhvndz/Whats-App-Image-2025-07-31-at-17-59-01-2.jpg</t>
-  </si>
-  <si>
-    <t>ABSOLUTE - 38 TO 42 -SWEAT</t>
-  </si>
-  <si>
-    <t>ABSOLUTE</t>
-  </si>
-  <si>
-    <t>PULLOVER</t>
-  </si>
-  <si>
-    <t>ABSOLUTE - M TO XL -SWEAT</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-903 - M TO XXL -FAB CHECK</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-903</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-937 -M TO XXL -FAB WASHING</t>
-  </si>
-  <si>
-    <t>UNDER 19/A-937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLECTIVE HOME -M TO XXL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLECTIVE HOME </t>
-  </si>
-  <si>
-    <t>SWEAT SHIRT</t>
-  </si>
-  <si>
-    <t>DENIM SQUARE -M TO XL -  WASHING</t>
   </si>
 </sst>
 </file>
@@ -692,20 +683,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B162F1B-6F62-4E4D-93B8-99A374348B20}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A161399E-3292-4033-9C6A-2353AB26C9AA}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" activeCellId="1" sqref="D13 D19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -727,16 +715,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -744,16 +732,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>650</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -761,16 +749,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -778,16 +766,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -795,444 +783,444 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>950</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>970</v>
+        <v>590</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>950</v>
+        <v>460</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>650</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>350</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C19">
-        <v>750</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>650</v>
+        <v>410</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>700</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <v>1050</v>
+        <v>660</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C30">
-        <v>1050</v>
+        <v>690</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C31">
-        <v>1050</v>
+        <v>660</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,16 +1228,16 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,16 +1245,16 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <v>562</v>
+        <v>690</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,53 +1262,284 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>670</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>750</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36">
+        <v>775</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>810</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>850</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39">
+        <v>850</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>650</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41">
+        <v>670</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>550</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34">
-        <v>562</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>550</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>82</v>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>550</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>550</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>550</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>550</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{F18E4136-BEE5-441E-A2D5-541EB2624CEB}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{2CCAA7A7-EA79-40A8-B69A-041596841263}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{9992AF0E-24FE-4971-B6CB-0DAFAFFB6A7D}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{AEAE873B-A3D9-4646-A7AC-D8C0537F9D30}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{813F10B6-C485-4226-BCA0-41253EE29339}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{DEA31F1F-2DF1-463B-B3CA-C6BDC8F9DB24}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{B242DD31-1C29-4AA3-9C0B-D8058BFF55E6}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{67A8FC6B-F8B7-4588-831D-21B7944586AE}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{0A746A4F-6F61-4DF5-BF72-A33B3AD6F5A0}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{11E7788C-2456-4E1C-A53C-7357E3A90A73}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{B1AE84C0-EDA0-4B45-B295-5EA53EAA0907}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{9501CBC9-6FF9-4455-88AD-DF32EC3B6AA2}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{A3819FAE-F39E-4080-877E-8FBBABD52275}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{24AB1193-5BEE-4B20-ACE2-A03451A1079A}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{7FFE809C-DC8B-4F0C-A274-C7234AB5D695}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{107284B5-2694-436D-8DE8-8E2D632D271C}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{662E4903-B457-4BAE-AF2D-A7BCF373F928}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{0AD7FF85-9C52-4CDA-AD70-ACD574CD669F}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{2D5EECCC-A0F6-47D6-A08D-C146D1FD317C}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{71FDDCD6-DFFD-45B3-B476-50007A3F0235}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{4C57D043-B1B4-4DCA-BFE6-27B037D7A28A}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{D703992A-44A9-4E10-A0A8-EDE9B2DDD223}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{0D8189E3-9237-4708-B224-8CF4FDC600A0}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{F9C0AFB1-F640-4664-B4EF-5E9DDB0B06A9}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{989B28D2-39AE-4427-A2E6-54B6B5C8AF56}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{1323EAAD-5698-45A7-85FA-1A3B17F7E95F}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{71C3A5A9-59C9-4F8E-9AFA-9CCF4D6391B9}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{7E7569A9-1310-42FB-9AB2-54F991A288F3}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{B574DF27-38C0-486A-BDD7-4703277C93F4}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{CB5A0661-A1DE-47E4-ADA5-19B3BE3E0470}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{D97B4846-4E18-476A-B4F9-97469D5CAADA}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{926F0334-7252-4148-9163-8413813B2FBB}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{F6A454F6-8AEF-48FB-9C51-8DA06DA60B8F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DC0B0F5A-7FB5-489A-B299-9C7CDE7EA201}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{79BDDA04-45A8-47B1-B76A-C74E7F1DBE62}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{AC9BD7F3-1366-4167-BE90-BAF1D6FAF649}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B33F9950-0896-4573-A942-FD76FFBF4576}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{64017D67-0610-41EE-A639-BB01373F54CF}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{622F9E6A-2031-44BD-8FFA-151EA5FB8BCA}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{5CDD1BD1-2D07-470F-809D-AE65E403817A}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{4D35491A-8110-4058-9FA1-1A5AED65B2D6}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{0785049F-7968-4DC6-B45B-0E1B8E6759E4}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{81028788-E88D-4959-9981-CD234BCFE170}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{5397797D-A645-4EE5-AD0C-B12863A2081A}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{8523663A-E8CC-418F-8C54-1032FA0615A4}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{5DFDB66D-89C1-409B-8E9E-CF8FD0FA1285}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{6A060737-CDB7-4408-8D4A-35A1E0BEE42A}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{EFEF7389-91C0-4AD4-9734-251A439230A5}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{CA4AC104-CA3C-4E97-A0C7-0DC9C763B4C9}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{6FD19F2F-F7A6-41AA-A50B-EC2140D2E522}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{104D531A-B1AD-457B-B158-AE2404CE9A7D}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{2E19C661-2E12-433A-9789-605022CB2763}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{CDC8711F-D76F-4118-99F2-620C4C2147E6}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{530072FE-171A-48D2-AFEE-B65008328EDA}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{D0B67DD4-B97F-4912-BED2-56B45A8F9ECD}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{56F3F220-6618-4D8A-A58D-4C61C132C1F9}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{06A1D2FE-6875-4EB6-8475-DA7443F4FC67}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{55526EBF-4B88-4E5F-852C-F9113CAB31AC}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{4E0366D3-74DC-4C89-B0E6-C18FC9378594}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{97AE1D70-A8C5-4349-8E50-356873CCD951}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{D1D7C5CE-38E3-4513-B043-B96D209D60E4}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{82075165-0CCE-4358-ADEF-34C60D06B96F}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{B46F3E1E-AD7D-4CAC-B953-20175AE6033C}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{5AE446CD-1DFD-49D3-AD05-9397B11FFD6D}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{4DFA0B45-7E71-4CD1-8A40-A5BE92F6240D}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{D8A29F17-979A-4154-B386-7421A207ACF4}"/>
+    <hyperlink ref="E34" r:id="rId34" xr:uid="{751F0B0C-8035-40B8-8AFB-66EC2AB5CDCA}"/>
+    <hyperlink ref="E35" r:id="rId35" xr:uid="{0F7927BA-9B64-4263-AE2B-4A0798306542}"/>
+    <hyperlink ref="E36" r:id="rId36" xr:uid="{1C119341-44D9-4BB3-8A8B-E30030A1354C}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{07335668-CEF5-4CC2-8340-D69DB964FE63}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{6CADB471-42C3-4E34-97F0-43A4196493C5}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{87B9D454-33CA-43BA-A56B-4558616458E5}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{BD52F6B9-5007-4655-AC71-2701E5702FCA}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{F4E393D2-21AF-49F0-B51E-371D80638DC6}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{A36F2D10-1153-4737-917B-EBD78E2B3594}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{FD95592A-3F21-4F3C-B591-3D4C6091FEE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/g_products.xlsx
+++ b/g_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01 USERS\SIMAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F14158-743D-4EB0-9DE2-CFDB06F96B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E36859E-20E2-411D-8C3B-4E57C591B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F6974F5A-8AA5-4797-9557-EF7146B3C5E8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">PRX/A-PK-40-M TO 2XL </t>
   </si>
   <si>
-    <t>PRX/A-PK-40</t>
-  </si>
-  <si>
     <t>LOWER</t>
   </si>
   <si>
@@ -100,69 +97,36 @@
     <t>PRX/A-PK-102 - M TO XXL</t>
   </si>
   <si>
-    <t>PRX/A-PK-102</t>
-  </si>
-  <si>
     <t>PRX/A-WL-36 - M TO 2XL</t>
   </si>
   <si>
-    <t>PRX/A-WL-36</t>
-  </si>
-  <si>
     <t>PRX/A-WL-37 - M TO 2XL</t>
   </si>
   <si>
-    <t>PRX/A-WL-37</t>
-  </si>
-  <si>
     <t>RANGER/A-1566 -38 TO 44 -CRUSH LYCRA</t>
   </si>
   <si>
-    <t>RANGER/A-1566</t>
-  </si>
-  <si>
     <t xml:space="preserve">RANGER/A-4340 -36 TO 46 </t>
   </si>
   <si>
-    <t>RANGER/A-4340</t>
-  </si>
-  <si>
     <t>RANGER/A-7725 -38 TO 44</t>
   </si>
   <si>
-    <t>RANGER/A-7725</t>
-  </si>
-  <si>
     <t>RANGER/A-7925 - 38 TO 44</t>
   </si>
   <si>
-    <t>RANGER/A-7925</t>
-  </si>
-  <si>
     <t xml:space="preserve">RANGER/A-7535 - 38 TO 44 </t>
   </si>
   <si>
-    <t>RANGER/A-7535</t>
-  </si>
-  <si>
     <t>BLACK BEANS/A-7118 - M TO XXL -DENIM TEXTILES (CARGO)</t>
   </si>
   <si>
-    <t>BLACK BEANS/A-7118</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLACK BEANS/A-7101 - M TO XXL - COTTON DENIM </t>
   </si>
   <si>
-    <t>BLACK BEANS/A-7101</t>
-  </si>
-  <si>
     <t>BLACK BEANS/A-5278 - M TO XXL -COTTON FEATHER</t>
   </si>
   <si>
-    <t>BLACK BEANS/A-5278</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/PrLWh7T4/Whats-App-Image-2025-08-30-at-12-52-20.jpg</t>
   </si>
   <si>
@@ -307,10 +271,325 @@
     <t>https://i.postimg.cc/xTdFbmzd/Whats-App-Image-2025-08-30-at-14-47-36-1.jpg</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/g2CM5BBw/Whats-App-Image-2025-0</t>
-  </si>
-  <si>
     <t>HOOD</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SRgY1RX0/Whats-App-Image-2025-08-17-at-08-32-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HsP7QJDX/Whats-App-Image-2025-08-17-at-08-32-27.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pXdFhf7P/Whats-App-Image-2025-08-17-at-08-32-35.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1RBF3CvW/Whats-App-Image-2025-08-17-at-08-32-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/t4ZnDXpf/Whats-App-Image-2025-08-17-at-08-32-52.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y9k4pYYK/Whats-App-Image-2025-08-20-at-10-06-49.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/s25QdwB4/Whats-App-Image-2025-08-20-at-10-06-50.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XJ8rXqkZ/Whats-App-Image-2025-08-20-at-10-07-01.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nhyjP6LL/Whats-App-Image-2025-08-20-at-10-07-09.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vTZcny00/Whats-App-Image-2025-08-20-at-10-07-24.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/hvZhbYwc/Whats-App-Image-2025-08-29-at-10-31-05.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/66M7X7Qg/Whats-App-Image-2025-08-29-at-10-31-07.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tC7sCXZT/Whats-App-Image-2025-08-29-at-10-31-40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SN5JnwCG/Whats-App-Image-2025-08-29-at-10-31-42-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BnKtHMCf/Whats-App-Image-2025-08-29-at-10-31-43.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KYhjNB9k/Whats-App-Image-2025-08-29-at-10-31-45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Jh3nd0gT/Whats-App-Image-2025-08-29-at-10-32-48.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/k4f5qZ7K/Whats-App-Image-2025-08-29-at-10-32-50.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/76x6vDrq/Whats-App-Image-2025-08-29-at-10-32-54.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8cYPr6JC/Whats-App-Image-2025-08-30-at-12-56-43.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/900QMpfS/Whats-App-Image-2025-08-30-at-12-56-55.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1R7zdLCZ/Whats-App-Image-2025-08-30-at-12-57-06.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Nfy0vpS2/Whats-App-Image-2025-09-02-at-11-59-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dtzVsGcH/Whats-App-Image-2025-09-02-at-12-00-05.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6pn5yT99/Whats-App-Image-2025-09-02-at-12-00-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZqmY3ZR6/Whats-App-Image-2025-09-02-at-12-00-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/MGY6m4MN/Whats-App-Image-2025-09-02-at-12-05-28.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/G2hc7Qv2/Whats-App-Image-2025-09-02-at-12-05-34.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mDXT0HSS/Whats-App-Image-2025-09-02-at-12-05-35.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J0SMhCvD/Whats-App-Image-2025-09-02-at-12-05-38.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8c7TDzKg/Whats-App-Image-2025-09-02-at-12-05-39.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RCYMdwhS/Whats-App-Image-2025-09-02-at-12-05-40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tCV9M7nh/Whats-App-Image-2025-09-05-at-14-23-58.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8zQTQDLx/Whats-App-Image-2025-09-05-at-14-24-00.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3w37NBSB/Whats-App-Image-2025-09-05-at-14-24-26.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FHyNhqZz/Whats-App-Image-2025-09-05-at-14-24-56.jpg</t>
+  </si>
+  <si>
+    <t>APPROX-450</t>
+  </si>
+  <si>
+    <t>APPROX-550</t>
+  </si>
+  <si>
+    <t>APPROX-670</t>
+  </si>
+  <si>
+    <t>APPROX-650</t>
+  </si>
+  <si>
+    <t>APPROX-850</t>
+  </si>
+  <si>
+    <t>APPROX-810</t>
+  </si>
+  <si>
+    <t>APPROX-775</t>
+  </si>
+  <si>
+    <t>APPROX-750</t>
+  </si>
+  <si>
+    <t>APPROX-690</t>
+  </si>
+  <si>
+    <t>APPROX-660</t>
+  </si>
+  <si>
+    <t>APPROX-325</t>
+  </si>
+  <si>
+    <t>APPROX-715</t>
+  </si>
+  <si>
+    <t>APPROX-330</t>
+  </si>
+  <si>
+    <t>APPROX-290</t>
+  </si>
+  <si>
+    <t>APPROX-400</t>
+  </si>
+  <si>
+    <t>APPROX-370</t>
+  </si>
+  <si>
+    <t>APPROX-590</t>
+  </si>
+  <si>
+    <t>APPROX-530</t>
+  </si>
+  <si>
+    <t>APPROX-460</t>
+  </si>
+  <si>
+    <t>APPROX-310</t>
+  </si>
+  <si>
+    <t>APPROX-350</t>
+  </si>
+  <si>
+    <t>APPROX-410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAITRI/A-7002 -M TO XXL </t>
+  </si>
+  <si>
+    <t>SWEAT</t>
+  </si>
+  <si>
+    <t>MAITRI</t>
+  </si>
+  <si>
+    <t>PRX</t>
+  </si>
+  <si>
+    <t>RANGER</t>
+  </si>
+  <si>
+    <t>BLACK BEANS</t>
+  </si>
+  <si>
+    <t>MAITRI/A-11113 - MT O XXL</t>
+  </si>
+  <si>
+    <t>MAITRI/A-7027 - M TO XXL</t>
+  </si>
+  <si>
+    <t>MAITRI/A-7016 - M TO XXL</t>
+  </si>
+  <si>
+    <t>MAITRI/A-1333 - M TO XXL</t>
+  </si>
+  <si>
+    <t>AXINO - M TO XXL</t>
+  </si>
+  <si>
+    <t>AXINO</t>
+  </si>
+  <si>
+    <t>FREE MIND/A-6121 -M TO XXL -2 THREAD FLEECE</t>
+  </si>
+  <si>
+    <t>FREE MIND</t>
+  </si>
+  <si>
+    <t>FREE MIND/A-40002 -M TO XXL -2 THREAD FLEECE</t>
+  </si>
+  <si>
+    <t>FREE MIND/A-39002 -M TO XXL -LYCRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE MIND/A-8104 -M TO XXL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE MIND/A-40002 -M TO XXL </t>
+  </si>
+  <si>
+    <t>DOMEX ORIGINAL - M TO XXL</t>
+  </si>
+  <si>
+    <t>HAMLER -M TO XXL</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBERTY - SLEEVELESS </t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X7dHr0yf/Whats-App-Image-2025-09-05-at-15-05-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/jST8NkzG/Whats-App-Image-2025-09-05-at-15-05-54.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tgC2vZvk/Whats-App-Image-2025-09-05-at-15-05-56.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Cx4c4H7d/Whats-App-Image-2025-09-05-at-15-05-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QM4S28R3/Whats-App-Image-2025-09-05-at-15-06-00.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XqF8BwXj/Whats-App-Image-2025-09-05-at-15-06-01.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZRWj4kSy/Whats-App-Image-2025-09-05-at-15-06-01-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/v86XKdhJ/Whats-App-Image-2025-09-05-at-15-06-02.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/JnSxhTrY/Whats-App-Image-2025-09-05-at-15-06-02-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bNxgzHKL/Whats-App-Image-2025-09-05-at-15-06-03.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BQ9N9wwX/Whats-App-Image-2025-09-05-at-15-06-03-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/htM0m44d/Whats-App-Image-2025-09-05-at-15-06-04.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/2SCw3LYY/Whats-App-Image-2025-09-05-at-15-06-04-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJHBBq65/Whats-App-Image-2025-09-05-at-15-06-05.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qq8sv4Zg/Whats-App-Image-2025-09-05-at-15-06-22.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SsYLHW66/Whats-App-Image-2025-09-05-at-15-06-22-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/903P2rbv/Whats-App-Image-2025-09-05-at-15-06-22-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CMDHNsLY/Whats-App-Image-2025-09-05-at-15-06-23.jpg</t>
+  </si>
+  <si>
+    <t>LIBERTY - BUTTON SWEATER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBERTY </t>
+  </si>
+  <si>
+    <t>LIBERTY -BUTTON SWEATER</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GtCCyxzz/Whats-App-Image-2025-09-05-at-15-57-15.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RhLzQJDm/Whats-App-Image-2025-09-05-at-15-57-27.jpg</t>
+  </si>
+  <si>
+    <t>CHIC MODA /9200 - M TO XL</t>
+  </si>
+  <si>
+    <t>APPROX-315</t>
+  </si>
+  <si>
+    <t>CHIC MODA</t>
   </si>
 </sst>
 </file>
@@ -684,15 +963,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A161399E-3292-4033-9C6A-2353AB26C9AA}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -715,13 +994,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>750</v>
+      <c r="C2" t="s">
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -732,16 +1011,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>650</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -749,16 +1028,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>650</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -766,16 +1045,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>715</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -783,716 +1062,1651 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C6">
-        <v>330</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>400</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>330</v>
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>370</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>590</v>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>530</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>460</v>
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>310</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>310</v>
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16">
-        <v>310</v>
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <v>325</v>
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18">
-        <v>350</v>
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>350</v>
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>350</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>350</v>
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>350</v>
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23">
-        <v>410</v>
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24">
-        <v>410</v>
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25">
-        <v>410</v>
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26">
-        <v>410</v>
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>325</v>
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28">
-        <v>450</v>
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29">
-        <v>660</v>
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30">
-        <v>690</v>
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31">
-        <v>660</v>
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32">
-        <v>650</v>
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33">
-        <v>690</v>
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34">
-        <v>670</v>
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35">
-        <v>750</v>
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36">
-        <v>775</v>
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37">
-        <v>810</v>
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
-        <v>850</v>
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39">
-        <v>850</v>
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40">
-        <v>650</v>
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41">
-        <v>670</v>
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42">
-        <v>550</v>
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43">
-        <v>550</v>
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44">
-        <v>550</v>
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45">
-        <v>550</v>
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46">
-        <v>550</v>
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C47">
-        <v>550</v>
-      </c>
-      <c r="D47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" t="s">
-        <v>90</v>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>158</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1540,6 +2754,56 @@
     <hyperlink ref="E42" r:id="rId41" xr:uid="{F4E393D2-21AF-49F0-B51E-371D80638DC6}"/>
     <hyperlink ref="E43" r:id="rId42" xr:uid="{A36F2D10-1153-4737-917B-EBD78E2B3594}"/>
     <hyperlink ref="E44" r:id="rId43" xr:uid="{FD95592A-3F21-4F3C-B591-3D4C6091FEE5}"/>
+    <hyperlink ref="E47" r:id="rId44" xr:uid="{6CCF05C0-EA15-4AF9-A078-912ABC0202B4}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{E205BD6A-C33E-40C3-9852-B759A05E854F}"/>
+    <hyperlink ref="E48" r:id="rId46" xr:uid="{46B19415-7601-4695-A0A9-4F4686871D60}"/>
+    <hyperlink ref="E49" r:id="rId47" xr:uid="{FA969593-3F6F-4F47-AF86-154EC531A811}"/>
+    <hyperlink ref="E50" r:id="rId48" xr:uid="{8813D48C-0DD2-4E66-AAC4-62CEB325936C}"/>
+    <hyperlink ref="E51" r:id="rId49" xr:uid="{B8E4BE64-FBC0-4945-AB0C-8E6F337E6D2A}"/>
+    <hyperlink ref="E52" r:id="rId50" xr:uid="{7CA18934-6FF5-4986-BB20-ADA539FCEF9A}"/>
+    <hyperlink ref="E53" r:id="rId51" xr:uid="{202B2397-4F23-4144-8B8A-A63078E2F60F}"/>
+    <hyperlink ref="E55" r:id="rId52" xr:uid="{6B19C531-DA45-4614-905C-FF5CF4223507}"/>
+    <hyperlink ref="E56" r:id="rId53" xr:uid="{1FB35A24-404F-4618-8827-8BBE59DCCA62}"/>
+    <hyperlink ref="E57" r:id="rId54" xr:uid="{CF2DE5F1-CF29-4B54-9F3F-E56230711232}"/>
+    <hyperlink ref="E58" r:id="rId55" xr:uid="{83F62063-C2C2-489A-A1AD-67BBD25F5A47}"/>
+    <hyperlink ref="E59" r:id="rId56" xr:uid="{D7FE4DE3-2641-41AC-B5AA-3F7055E89AA6}"/>
+    <hyperlink ref="E60" r:id="rId57" xr:uid="{0F65FC30-B465-4A33-872F-5613BD11EA8D}"/>
+    <hyperlink ref="E61" r:id="rId58" xr:uid="{827E8C16-E6A8-4EAF-B4F6-89D74AE5BB07}"/>
+    <hyperlink ref="E62" r:id="rId59" xr:uid="{9D258AE2-D915-409E-A76F-25C9E794D7DF}"/>
+    <hyperlink ref="E63" r:id="rId60" xr:uid="{13ECCA6E-7ADD-48A7-AE74-0BBED46C2E88}"/>
+    <hyperlink ref="E64" r:id="rId61" xr:uid="{8B24B234-7279-4AE8-9FA2-8D8244B16E60}"/>
+    <hyperlink ref="E65" r:id="rId62" xr:uid="{DF49D69C-CDE8-4254-8BF4-0D6F2104E314}"/>
+    <hyperlink ref="E66" r:id="rId63" xr:uid="{7DB134A3-5423-49D3-A281-AAFEC814E787}"/>
+    <hyperlink ref="E69" r:id="rId64" xr:uid="{7898AAED-DA17-4FCF-BF34-78FCF5BF967F}"/>
+    <hyperlink ref="E68" r:id="rId65" xr:uid="{393E2238-752A-4C94-B4BA-6DD8EC57CCEE}"/>
+    <hyperlink ref="E73" r:id="rId66" xr:uid="{1A859F11-6AAA-4D3B-BD72-3691AC633D37}"/>
+    <hyperlink ref="E74" r:id="rId67" xr:uid="{7BEFDC79-3577-4E60-BAF6-7627FDDF5A55}"/>
+    <hyperlink ref="E72" r:id="rId68" xr:uid="{D4751B7D-2DBA-4E6F-8830-09D98E548A91}"/>
+    <hyperlink ref="E75" r:id="rId69" xr:uid="{91463F08-5CD5-403E-BE02-0894CABDC8C1}"/>
+    <hyperlink ref="E76" r:id="rId70" xr:uid="{90B31D8D-FDD9-44AE-AA2D-EF0F7657AE87}"/>
+    <hyperlink ref="E77" r:id="rId71" xr:uid="{448C9CA1-712A-4FDD-BCA0-EA42014E3D81}"/>
+    <hyperlink ref="E78" r:id="rId72" xr:uid="{785F9788-C601-4939-B2C1-6E128791D45F}"/>
+    <hyperlink ref="E79" r:id="rId73" xr:uid="{6A953E93-BEF2-4858-ACFB-234E6F24797A}"/>
+    <hyperlink ref="E82" r:id="rId74" xr:uid="{AE134F20-68EA-49B8-973D-0981B4BBE06F}"/>
+    <hyperlink ref="E81" r:id="rId75" xr:uid="{EC350BD3-361F-4E89-B8BB-D92DD99E98C7}"/>
+    <hyperlink ref="E99" r:id="rId76" xr:uid="{ECB9C027-D7EC-48DD-9217-284672831729}"/>
+    <hyperlink ref="E98" r:id="rId77" xr:uid="{C4640958-6318-4BE7-9D5D-AFC1E363960C}"/>
+    <hyperlink ref="E97" r:id="rId78" xr:uid="{4053D34B-7A31-4C33-85FE-B778C65A6094}"/>
+    <hyperlink ref="E96" r:id="rId79" xr:uid="{A6CECF2B-36C5-48A8-9BC9-D688CDDC93AA}"/>
+    <hyperlink ref="E95" r:id="rId80" xr:uid="{9843C62D-6A11-4FC8-88F1-1268D0C59CCA}"/>
+    <hyperlink ref="E94" r:id="rId81" xr:uid="{F6C6D131-B07F-4ABB-B0B6-C0BC69252383}"/>
+    <hyperlink ref="E93" r:id="rId82" xr:uid="{AFB89A64-5057-4F52-80D6-05C2ECC1E8B1}"/>
+    <hyperlink ref="E92" r:id="rId83" xr:uid="{39DE7090-D9AF-4311-B3B6-CEA9EAE7307A}"/>
+    <hyperlink ref="E91" r:id="rId84" xr:uid="{DBF02442-703B-4098-B604-2F7B7732C300}"/>
+    <hyperlink ref="E90" r:id="rId85" xr:uid="{C07868AA-D158-431D-AF31-1C60A915E601}"/>
+    <hyperlink ref="E89" r:id="rId86" xr:uid="{15BF40B8-7F01-4C78-8A24-EAE84FAC337F}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{09AE4231-C7D6-4A61-8803-DBCD07599104}"/>
+    <hyperlink ref="E87" r:id="rId88" xr:uid="{DC16944C-A5B5-4242-83C9-BAD92985545F}"/>
+    <hyperlink ref="E86" r:id="rId89" xr:uid="{C12F7B0B-A95E-496B-B9A7-CF2C1DF98AC8}"/>
+    <hyperlink ref="E85" r:id="rId90" xr:uid="{64812D41-653F-4A99-B029-BABC10DAB686}"/>
+    <hyperlink ref="E84" r:id="rId91" xr:uid="{5B1FCFED-01AC-4C77-9BA2-6A81CF16FAC1}"/>
+    <hyperlink ref="E83" r:id="rId92" xr:uid="{3D08F0FB-5F0B-40D9-A9DF-888AE89098E9}"/>
+    <hyperlink ref="E101" r:id="rId93" xr:uid="{9E8EC977-81E1-41C9-B95F-827768A4D541}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
